--- a/artfynd/A 6539-2024 artfynd.xlsx
+++ b/artfynd/A 6539-2024 artfynd.xlsx
@@ -1138,7 +1138,7 @@
         <v>122393382</v>
       </c>
       <c r="B6" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>122418985</v>
       </c>
       <c r="B14" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
